--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori3/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori3/99/word_level_predictions_99.xlsx
@@ -29,17 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFB6B6"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3125,289 +3119,289 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>19</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>motor</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>21</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>22</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>exist</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>23</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>exist</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori3/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori3/99/word_level_predictions_99.xlsx
@@ -29,12 +29,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6B6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3119,7 +3125,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -3143,265 +3149,265 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>motor</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>exist</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
